--- a/AGENTS.xlsx
+++ b/AGENTS.xlsx
@@ -22,7 +22,7 @@
     <author>tc={00E50051-00FD-4D92-A36F-00F200FB0065}</author>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0" xr:uid="{00F000BE-008B-4107-B662-00AF00440083}">
+    <comment ref="U5" authorId="0" xr:uid="{00F000BE-008B-4107-B662-00AF00440083}">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="1" xr:uid="{00E50051-00FD-4D92-A36F-00F200FB0065}">
+    <comment ref="R6" authorId="1" xr:uid="{00E50051-00FD-4D92-A36F-00F200FB0065}">
       <text>
         <r>
           <rPr>
@@ -829,7 +829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,22 +843,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
@@ -906,15 +896,12 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,46 +910,43 @@
     <xf fontId="3" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="6" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="7" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="8" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="1" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -971,10 +955,10 @@
     <xf fontId="3" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="6" borderId="1" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,8 +982,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="user" id="{41A92D8C-453F-D986-A6CA-C9118F1A6963}"/>
-  <person displayName="Admin" id="{AB414C38-3A9D-99C9-DD6F-41171AA6125F}"/>
+  <person displayName="user" id="{BBE88717-0FC7-B1D8-3BDF-83237499A321}"/>
+  <person displayName="Admin" id="{4F8106F3-EFDD-6E17-8AB8-628C3DA32093}"/>
 </personList>
 </file>
 
@@ -1495,11 +1479,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W5" personId="{41A92D8C-453F-D986-A6CA-C9118F1A6963}" id="{00F000BE-008B-4107-B662-00AF00440083}" done="0">
+  <threadedComment ref="U5" personId="{BBE88717-0FC7-B1D8-3BDF-83237499A321}" id="{00F000BE-008B-4107-B662-00AF00440083}" done="0">
     <text xml:space="preserve">ISSAAF MONDIAL ASSISTANCE
 </text>
   </threadedComment>
-  <threadedComment ref="T6" personId="{AB414C38-3A9D-99C9-DD6F-41171AA6125F}" id="{00E50051-00FD-4D92-A36F-00F200FB0065}" done="0">
+  <threadedComment ref="R6" personId="{4F8106F3-EFDD-6E17-8AB8-628C3DA32093}" id="{00E50051-00FD-4D92-A36F-00F200FB0065}" done="0">
     <text xml:space="preserve">En cours : 3 exemplaires envoyés à l'agent + 1 exemplaire signé également envoyé
 </text>
   </threadedComment>
@@ -1555,118 +1539,118 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="AP1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1"/>
       <c r="AX1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1679,1722 +1663,1650 @@
       <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" ht="56.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>6650</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>35.585340000000002</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8">
-        <v>35.585340000000002</v>
-      </c>
-      <c r="O2" s="8">
-        <v>-5.3472090000000003</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="O2" s="4">
         <v>44727</v>
       </c>
-      <c r="R2" s="5">
+      <c r="P2" s="4">
         <v>25272</v>
       </c>
-      <c r="S2" s="9">
+      <c r="Q2" s="7">
         <v>56.038356164383565</v>
       </c>
-      <c r="T2" s="10">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <v>0</v>
-      </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="5" t="s">
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AA2" s="4">
         <v>44841</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AK2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AL2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="AM2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="AO2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AP2" s="10">
         <v>100000</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AQ2" s="4">
         <v>31103</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AR2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AS2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AT2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
+      <c r="AU2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
     </row>
     <row r="3" ht="67.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>6647</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>31.64893</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>-7.8343470000000002</v>
       </c>
-      <c r="N3" s="8">
-        <v>31.64893</v>
-      </c>
-      <c r="O3" s="8">
-        <v>-7.8343470000000002</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="O3" s="4">
         <v>44425</v>
       </c>
-      <c r="R3" s="5">
+      <c r="P3" s="4">
         <v>33119</v>
       </c>
-      <c r="S3" s="9">
+      <c r="Q3" s="7">
         <v>34.539726027397258</v>
       </c>
-      <c r="T3" s="10">
+      <c r="R3" s="8">
         <v>1</v>
       </c>
-      <c r="U3" s="10">
+      <c r="S3" s="8">
         <v>1</v>
       </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="4" t="s">
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AA3" s="4">
         <v>44545</v>
       </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AK3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AL3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AM3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AN3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ3" s="16" t="s">
+      <c r="AO3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AP3" s="10">
         <v>100000</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AQ3" s="14">
         <v>116641</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AR3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AS3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AT3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AW3" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
+      <c r="AU3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
     </row>
     <row r="4" ht="57">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>6648</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>32.241250999999998</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>-7.9568529999999997</v>
       </c>
-      <c r="N4" s="8">
-        <v>32.241250999999998</v>
-      </c>
-      <c r="O4" s="8">
-        <v>-7.9568529999999997</v>
-      </c>
-      <c r="P4" s="16" t="s">
+      <c r="N4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="O4" s="4">
         <v>44467</v>
       </c>
-      <c r="R4" s="5">
+      <c r="P4" s="4">
         <v>30553</v>
       </c>
-      <c r="S4" s="9">
+      <c r="Q4" s="7">
         <v>41.56986301369863</v>
       </c>
-      <c r="T4" s="10">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="4" t="s">
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AA4" s="4">
         <v>44598</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AB4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AE4" s="5">
+      <c r="AC4" s="4">
         <v>45335</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AD4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" s="18" t="s">
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AK4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AL4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AM4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AN4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AQ4" s="16" t="s">
+      <c r="AO4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AP4" s="10">
         <v>100000</v>
       </c>
-      <c r="AS4" s="16">
+      <c r="AQ4" s="14">
         <v>2889</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AR4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AS4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AT4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AW4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="19" t="s">
+      <c r="AU4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
     </row>
     <row r="5" ht="90">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>5833</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="O5" s="4">
         <v>36186</v>
       </c>
-      <c r="R5" s="5">
+      <c r="P5" s="4">
         <v>23638</v>
       </c>
-      <c r="S5" s="9">
+      <c r="Q5" s="7">
         <v>60.515068493150686</v>
       </c>
-      <c r="T5" s="10">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="4" t="s">
+      <c r="V5" s="8"/>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AA5" s="4">
         <v>36521</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AB5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AC5" s="4">
         <v>36675</v>
       </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AD5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="4" t="s">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AG5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AH5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL5" s="18" t="s">
+      <c r="AI5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AK5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AL5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AM5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AN5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ5" s="16" t="s">
+      <c r="AO5" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AP5" s="10">
         <v>100000</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AQ5" s="14">
         <v>51303</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AR5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AS5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AT5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AW5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="15" t="s">
+      <c r="AU5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA5" s="11">
+      <c r="AY5" s="9">
         <v>42648</v>
       </c>
-      <c r="BB5" s="15" t="s">
+      <c r="AZ5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BC5" s="11">
+      <c r="BA5" s="9">
         <v>43374</v>
       </c>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
     </row>
     <row r="6" ht="56.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>6518</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="O6" s="4">
         <v>41183</v>
       </c>
-      <c r="R6" s="5">
+      <c r="P6" s="4">
         <v>25934</v>
       </c>
-      <c r="S6" s="9">
+      <c r="Q6" s="7">
         <v>54.224657534246575</v>
       </c>
-      <c r="T6" s="10">
+      <c r="R6" s="8">
         <v>1</v>
       </c>
-      <c r="U6" s="10">
+      <c r="S6" s="8">
         <v>1</v>
       </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10">
+      <c r="T6" s="8">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8">
         <v>1</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="Z6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AA6" s="18">
         <v>41253</v>
       </c>
-      <c r="AD6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AB6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="4" t="s">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AG6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AH6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AI6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AK6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AL6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AM6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AN6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ6" s="16" t="s">
+      <c r="AO6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AR6" s="12">
+      <c r="AP6" s="10">
         <v>50000</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="AQ6" s="14">
         <v>93313</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AR6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AS6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AT6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AW6" s="13">
+      <c r="AU6" s="11">
         <v>1</v>
       </c>
-      <c r="AX6" s="14" t="s">
+      <c r="AV6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY6" s="14" t="s">
+      <c r="AW6" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AZ6" s="15" t="s">
+      <c r="AX6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA6" s="11">
+      <c r="AY6" s="9">
         <v>43074</v>
       </c>
-      <c r="BB6" s="15" t="s">
+      <c r="AZ6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="BC6" s="11">
+      <c r="BA6" s="9">
         <v>42808</v>
       </c>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
     </row>
     <row r="7" ht="78.75">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>6474</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P7" s="16" t="s">
+      <c r="N7" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="O7" s="4">
         <v>40667</v>
       </c>
-      <c r="R7" s="5">
+      <c r="P7" s="4">
         <v>25966</v>
       </c>
-      <c r="S7" s="9">
+      <c r="Q7" s="7">
         <v>54.136986301369866</v>
       </c>
-      <c r="T7" s="10">
+      <c r="R7" s="8">
         <v>1</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
         <v>1</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="4" t="s">
+      <c r="V7" s="8"/>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AA7" s="18">
         <v>40683</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AB7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AC7" s="18">
         <v>42783</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AD7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="4" t="s">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AG7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AH7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AK7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AI7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AK7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AL7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AM7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP7" s="4" t="s">
+      <c r="AN7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ7" s="21" t="s">
+      <c r="AO7" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AP7" s="10">
         <v>100000</v>
       </c>
-      <c r="AS7" s="21">
+      <c r="AQ7" s="19">
         <v>85293</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AR7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AS7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AT7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AW7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="15" t="s">
+      <c r="AU7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA7" s="11">
+      <c r="AY7" s="9">
         <v>43375</v>
       </c>
-      <c r="BB7" s="15" t="s">
+      <c r="AZ7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BC7" s="11">
+      <c r="BA7" s="9">
         <v>42874</v>
       </c>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
     </row>
     <row r="8" ht="78.75">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>5875</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="P8" s="16" t="s">
+      <c r="N8" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="O8" s="4">
         <v>39338</v>
       </c>
-      <c r="R8" s="5">
+      <c r="P8" s="4">
         <v>26965</v>
       </c>
-      <c r="S8" s="9">
+      <c r="Q8" s="7">
         <v>51.399999999999999</v>
       </c>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10">
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>1</v>
       </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="4" t="s">
+      <c r="U8" s="8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AA8" s="18">
         <v>39415</v>
       </c>
-      <c r="AD8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AB8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="4" t="s">
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AG8" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AH8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="AK8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AI8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AK8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AL8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AM8" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AN8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ8" s="21" t="s">
+      <c r="AO8" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AR8" s="12">
+      <c r="AP8" s="10">
         <v>10000</v>
       </c>
-      <c r="AS8" s="21">
+      <c r="AQ8" s="19">
         <v>69105</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AR8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4" t="s">
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AW8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="15" t="s">
+      <c r="AU8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA8" s="11">
+      <c r="AY8" s="9">
         <v>43375</v>
       </c>
-      <c r="BB8" s="15" t="s">
+      <c r="AZ8" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="BC8" s="11">
+      <c r="BA8" s="9">
         <v>42811</v>
       </c>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
     </row>
     <row r="9" ht="45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>6420</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="16" t="s">
+      <c r="N9" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="O9" s="4">
         <v>39421</v>
       </c>
-      <c r="R9" s="5">
+      <c r="P9" s="4">
         <v>14533</v>
       </c>
-      <c r="S9" s="9">
+      <c r="Q9" s="7">
         <v>85.460273972602735</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="4" t="s">
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AA9" s="18">
         <v>33589</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AB9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" s="20">
+      <c r="AC9" s="18">
         <v>39449</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AD9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="4" t="s">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="AG9" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AH9" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AK9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AI9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AK9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AL9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO9" s="4" t="s">
+      <c r="AM9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP9" s="4" t="s">
+      <c r="AN9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ9" s="21" t="s">
+      <c r="AO9" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AR9" s="12">
+      <c r="AP9" s="10">
         <v>500000</v>
       </c>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4" t="s">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AW9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="15" t="s">
+      <c r="AU9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA9" s="11">
+      <c r="AY9" s="9">
         <v>43374</v>
       </c>
-      <c r="BB9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
+      <c r="AZ9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
     </row>
     <row r="10" ht="67.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>5871</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P10" s="16" t="s">
+      <c r="N10" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="O10" s="4">
         <v>39357</v>
       </c>
-      <c r="R10" s="5">
+      <c r="P10" s="4">
         <v>27073</v>
       </c>
-      <c r="S10" s="9">
+      <c r="Q10" s="7">
         <v>51.104109589041094</v>
       </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10">
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>1</v>
       </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="4">
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="3">
         <v>20624188200781000</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AA10" s="18">
         <v>39328</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AB10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="4" t="s">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AG10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AH10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AK10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AI10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AK10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AL10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO10" s="4" t="s">
+      <c r="AM10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AN10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ10" s="21" t="s">
+      <c r="AO10" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AR10" s="12">
+      <c r="AP10" s="10">
         <v>400000</v>
       </c>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="4" t="s">
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AS10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AV10" s="4" t="s">
+      <c r="AT10" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AW10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="15" t="s">
+      <c r="AU10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="BA10" s="11">
+      <c r="AY10" s="9">
         <v>42808</v>
       </c>
-      <c r="BB10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
+      <c r="AZ10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
     </row>
     <row r="11" ht="90">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>5865</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P11" s="16" t="s">
+      <c r="N11" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="O11" s="4">
         <v>38681</v>
       </c>
-      <c r="R11" s="5">
+      <c r="P11" s="4">
         <v>20455</v>
       </c>
-      <c r="S11" s="9">
+      <c r="Q11" s="7">
         <v>69.235616438356161</v>
       </c>
-      <c r="T11" s="10">
+      <c r="R11" s="8">
         <v>1</v>
       </c>
-      <c r="U11" s="10">
+      <c r="S11" s="8">
         <v>1</v>
       </c>
-      <c r="V11" s="10">
+      <c r="T11" s="8">
         <v>1</v>
       </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10">
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
         <v>1</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="Z11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AA11" s="18">
         <v>38624</v>
       </c>
-      <c r="AD11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF11" s="23" t="s">
+      <c r="AB11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="4" t="s">
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AG11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AH11" s="3">
         <v>661267574</v>
       </c>
-      <c r="AK11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AI11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AK11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AL11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO11" s="4" t="s">
+      <c r="AM11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP11" s="4" t="s">
+      <c r="AN11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ11" s="21" t="s">
+      <c r="AO11" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AR11" s="12">
+      <c r="AP11" s="10">
         <v>100000</v>
       </c>
-      <c r="AS11" s="21">
+      <c r="AQ11" s="19">
         <v>62081</v>
       </c>
-      <c r="AT11" s="4" t="s">
+      <c r="AR11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU11" s="4" t="s">
+      <c r="AS11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AV11" s="4" t="s">
+      <c r="AT11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AW11" s="13">
+      <c r="AU11" s="11">
         <v>1</v>
       </c>
-      <c r="AX11" s="14" t="s">
+      <c r="AV11" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AY11" s="14" t="s">
+      <c r="AW11" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AZ11" s="15" t="s">
+      <c r="AX11" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="BA11" s="11">
+      <c r="AY11" s="9">
         <v>42808</v>
       </c>
-      <c r="BB11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
+      <c r="AZ11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
     </row>
     <row r="12" ht="78.75">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>6502</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="16" t="s">
+      <c r="N12" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="O12" s="4">
         <v>42157</v>
       </c>
-      <c r="R12" s="5">
+      <c r="P12" s="4">
         <v>26560</v>
       </c>
-      <c r="S12" s="9">
+      <c r="Q12" s="7">
         <v>52.509589041095893</v>
       </c>
-      <c r="T12" s="10">
-        <v>0</v>
-      </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="4" t="s">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AA12" s="18">
         <v>42209</v>
       </c>
-      <c r="AD12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF12" s="23" t="s">
+      <c r="AB12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AH12" s="3">
         <v>661104714</v>
       </c>
-      <c r="AK12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AI12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AM12" s="4" t="s">
+      <c r="AK12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AL12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AO12" s="4" t="s">
+      <c r="AM12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AP12" s="4" t="s">
+      <c r="AN12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AQ12" s="21" t="s">
+      <c r="AO12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AR12" s="12">
+      <c r="AP12" s="10">
         <v>100000</v>
       </c>
-      <c r="AS12" s="21">
+      <c r="AQ12" s="19">
         <v>111423</v>
       </c>
-      <c r="AT12" s="4" t="s">
+      <c r="AR12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AU12" s="4" t="s">
+      <c r="AS12" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AV12" s="4" t="s">
+      <c r="AT12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AW12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="15" t="s">
+      <c r="AU12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BA12" s="11">
+      <c r="AY12" s="9">
         <v>42648</v>
       </c>
-      <c r="BB12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
+      <c r="AZ12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AL4"/>
-    <hyperlink r:id="rId2" ref="AL5"/>
+    <hyperlink r:id="rId1" ref="AJ4"/>
+    <hyperlink r:id="rId2" ref="AJ5"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
